--- a/NoteBook/task and schedule plans and actual/TASK_Fabian Becerra.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Fabian Becerra.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -386,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -428,56 +428,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,12 +806,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -817,18 +820,18 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="30">
         <v>41719</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -851,8 +854,8 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
@@ -866,146 +869,146 @@
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="17" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="4"/>
@@ -1047,7 +1050,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
         <v>26</v>
@@ -1088,7 +1091,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>27</v>
@@ -1129,7 +1132,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="7"/>
@@ -1172,7 +1175,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
         <v>29</v>
@@ -1213,7 +1216,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="7"/>
@@ -1256,7 +1259,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="7"/>
       <c r="C20" s="5" t="s">
         <v>31</v>
@@ -1297,7 +1300,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
         <v>32</v>
@@ -1338,7 +1341,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5" t="s">
         <v>58</v>
@@ -1379,7 +1382,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
         <v>33</v>
@@ -1420,7 +1423,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
         <v>34</v>
@@ -1461,7 +1464,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5" t="s">
         <v>35</v>
@@ -1533,12 +1536,19 @@
         <f t="shared" ref="J26:J35" si="4">SUM(I26+J25)</f>
         <v>48.7</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="9"/>
+      <c r="K26" s="32">
+        <v>3</v>
+      </c>
+      <c r="L26" s="32">
+        <f>L25+K26</f>
+        <v>15.1</v>
+      </c>
+      <c r="M26" s="32">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="7"/>
@@ -1569,12 +1579,19 @@
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="9"/>
+      <c r="K27" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="L27" s="32">
+        <f>L26+K27</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M27" s="32">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="7"/>
       <c r="C28" s="5" t="s">
         <v>38</v>
@@ -1603,12 +1620,12 @@
         <f t="shared" si="4"/>
         <v>53.7</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="9"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="7"/>
       <c r="C29" s="5" t="s">
         <v>39</v>
@@ -1637,12 +1654,12 @@
         <f t="shared" si="4"/>
         <v>55.400000000000006</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="9"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="7"/>
@@ -1673,12 +1690,12 @@
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="9"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="7"/>
       <c r="C31" s="5" t="s">
         <v>41</v>
@@ -1703,12 +1720,12 @@
         <f t="shared" si="4"/>
         <v>70.3</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="9"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="7"/>
       <c r="C32" s="5" t="s">
         <v>57</v>
@@ -1737,12 +1754,12 @@
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="7"/>
       <c r="C33" s="5" t="s">
         <v>42</v>
@@ -1771,9 +1788,9 @@
         <f t="shared" si="4"/>
         <v>88.6</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -1807,12 +1824,12 @@
         <f t="shared" si="4"/>
         <v>91.899999999999991</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="7"/>
@@ -1848,7 +1865,7 @@
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
         <v>45</v>
@@ -1888,25 +1905,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:G3"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="J8:J13"/>
@@ -1918,6 +1916,25 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A25"/>
     <mergeCell ref="A27:A29"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/NoteBook/task and schedule plans and actual/TASK_Fabian Becerra.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Fabian Becerra.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabiánEduardo\Documents\GitHub\tsp\NoteBook\task and schedule plans and actual\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -386,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -401,9 +406,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -428,6 +430,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -443,9 +454,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -454,33 +483,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,6 +493,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -539,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,7 +579,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,12 +811,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -820,18 +825,18 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="28">
         <v>41719</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -854,8 +859,8 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
@@ -869,1042 +874,1124 @@
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="15" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f>D14</f>
         <v>2</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>2</v>
       </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
         <f>ROUND(D14/D37*100,1)</f>
         <v>6.6</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f>I14</f>
         <v>6.6</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>2</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>2</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
         <f>D15+E14</f>
         <v>3</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>5</v>
       </c>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
         <f>ROUND(D15/D37*100,1)</f>
         <v>3.3</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <f>SUM(I15+J14)</f>
         <v>9.8999999999999986</v>
       </c>
-      <c r="K15" s="9">
-        <v>1</v>
-      </c>
-      <c r="L15" s="9">
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8">
         <f>K15+L14</f>
         <v>3</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>0.5</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f t="shared" ref="E16:E36" si="0">D16+E15</f>
         <v>3.5</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
         <f>ROUND(D16/D37*100,1)</f>
         <v>1.7</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <f>SUM(I16+J15)</f>
         <v>11.599999999999998</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>0.5</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <f t="shared" ref="L16" si="1">K16+L15</f>
         <v>3.5</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9">
-        <v>3</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>3</v>
+      </c>
+      <c r="I17" s="8">
         <f>ROUND(D17/D37*100,1)</f>
         <v>3.3</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <f t="shared" ref="J17:J24" si="2">SUM(I17+J16)</f>
         <v>14.899999999999999</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>1.4</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <f>K17+L16</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>2</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
-        <v>3</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>3</v>
+      </c>
+      <c r="I18" s="8">
         <f>ROUND(D18/D37*100,1)</f>
         <v>6.6</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <f t="shared" si="2"/>
         <v>21.5</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>1.5</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <f>K18+L17</f>
         <v>6.4</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>0.5</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <f>D19+E18</f>
         <v>7</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9">
-        <v>3</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>3</v>
+      </c>
+      <c r="I19" s="8">
         <f>ROUND(D19/D37*100,1)</f>
         <v>1.7</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <f>SUM(I19+J18)</f>
         <v>23.2</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>0.3</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <f t="shared" ref="L19:L25" si="3">K19+L18</f>
         <v>6.7</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9">
-        <v>3</v>
-      </c>
-      <c r="I20" s="9">
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
+        <v>3</v>
+      </c>
+      <c r="I20" s="8">
         <f>ROUND(D20/D37*100,1)</f>
         <v>3.3</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <f t="shared" si="2"/>
         <v>26.5</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>1.3</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>0.2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <f t="shared" si="0"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="9">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9">
-        <v>3</v>
-      </c>
-      <c r="I21" s="9">
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>3</v>
+      </c>
+      <c r="I21" s="8">
         <f>ROUND(D21/D37*100,1)</f>
         <v>0.7</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <f>SUM(I21+J20)</f>
         <v>27.2</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>0.2</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <f t="shared" si="3"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
         <f t="shared" si="0"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9">
-        <v>3</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>3</v>
+      </c>
+      <c r="I22" s="8">
         <f>ROUND(D22/D37*100,1)</f>
         <v>3.3</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <f t="shared" si="2"/>
         <v>30.5</v>
       </c>
-      <c r="K22" s="9">
-        <v>1</v>
-      </c>
-      <c r="L22" s="9">
+      <c r="K22" s="8">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8">
         <f t="shared" si="3"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>0.3</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="9">
-        <v>3</v>
-      </c>
-      <c r="H23" s="9">
-        <v>3</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="G23" s="8">
+        <v>3</v>
+      </c>
+      <c r="H23" s="8">
+        <v>3</v>
+      </c>
+      <c r="I23" s="8">
         <f>ROUND(D23/D37*100,1)</f>
         <v>1</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <f t="shared" si="2"/>
         <v>31.5</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <v>0.4</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <f t="shared" si="3"/>
         <v>9.6</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>0.2</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <f t="shared" si="0"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>2</v>
       </c>
-      <c r="H24" s="9">
-        <v>3</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="H24" s="8">
+        <v>3</v>
+      </c>
+      <c r="I24" s="8">
         <f>ROUND(D24/D37*100,1)</f>
         <v>0.7</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <f t="shared" si="2"/>
         <v>32.200000000000003</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>0.1</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <f t="shared" si="3"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="8">
-        <v>3</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8">
         <f t="shared" si="0"/>
         <v>12.7</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>5</v>
       </c>
-      <c r="H25" s="9">
-        <v>3</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="H25" s="8">
+        <v>3</v>
+      </c>
+      <c r="I25" s="8">
         <f>ROUND(D25/D37*100,1)</f>
         <v>9.9</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <f>SUM(I25+J24)</f>
         <v>42.1</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <v>2.4</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <f t="shared" si="3"/>
         <v>12.1</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>2</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <f>D26+E25</f>
         <v>14.7</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9">
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
         <v>4</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <f>ROUND(D26/D37*100,1)</f>
         <v>6.6</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <f t="shared" ref="J26:J35" si="4">SUM(I26+J25)</f>
         <v>48.7</v>
       </c>
-      <c r="K26" s="32">
-        <v>3</v>
-      </c>
-      <c r="L26" s="32">
+      <c r="K26" s="14">
+        <v>3</v>
+      </c>
+      <c r="L26" s="14">
         <f>L25+K26</f>
         <v>15.1</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
         <f>D27+E26</f>
         <v>15.7</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>2</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>4</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <f>ROUND(D27/D37*100,1)</f>
         <v>3.3</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="8">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="14">
         <v>2.5</v>
       </c>
-      <c r="L27" s="32">
+      <c r="L27" s="14">
         <f>L26+K27</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M27" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>0.5</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <f t="shared" si="0"/>
         <v>16.2</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="9">
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8">
         <v>4</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <f>ROUND(D28/D37*100,1)</f>
         <v>1.7</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <f t="shared" si="4"/>
         <v>53.7</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
+      <c r="K28" s="14">
+        <v>1</v>
+      </c>
+      <c r="L28" s="14">
+        <f t="shared" ref="L28:L36" si="5">L27+K28</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M28" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>0.5</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <f>D29+E28</f>
         <v>16.7</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>0.7</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>4</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <f>ROUND(D29/D37*100,1)</f>
         <v>1.7</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <f t="shared" si="4"/>
         <v>55.400000000000006</v>
       </c>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
+      <c r="K29" s="14">
+        <v>1</v>
+      </c>
+      <c r="L29" s="14">
+        <f t="shared" si="5"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M29" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>3.5</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <f>D30+E29</f>
         <v>20.2</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="9">
-        <v>3</v>
-      </c>
-      <c r="H30" s="9">
+      <c r="G30" s="8">
+        <v>3</v>
+      </c>
+      <c r="H30" s="8">
         <v>5</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <f>ROUND(D30/D37*100,1)</f>
         <v>11.6</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
+      <c r="K30" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="L30" s="14">
+        <f t="shared" si="5"/>
+        <v>24.1</v>
+      </c>
+      <c r="M30" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9">
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
         <f t="shared" si="0"/>
         <v>21.2</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9">
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8">
         <v>5</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <f>ROUND(D31/D37*100,1)</f>
         <v>3.3</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <f t="shared" si="4"/>
         <v>70.3</v>
       </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
+      <c r="K31" s="14">
+        <v>2</v>
+      </c>
+      <c r="L31" s="14">
+        <f t="shared" si="5"/>
+        <v>26.1</v>
+      </c>
+      <c r="M31" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>0.5</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <f t="shared" si="0"/>
         <v>21.7</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>0.7</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>5</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <f>ROUND(D32/D37*100,1)</f>
         <v>1.7</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
+      <c r="K32" s="14">
+        <v>1</v>
+      </c>
+      <c r="L32" s="14">
+        <f t="shared" si="5"/>
+        <v>27.1</v>
+      </c>
+      <c r="M32" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>5</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <f t="shared" si="0"/>
         <v>26.7</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>646</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>5</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <f>ROUND(D33/D37*100,1)</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
         <f t="shared" si="4"/>
         <v>88.6</v>
       </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
+      <c r="K33" s="14">
+        <v>6</v>
+      </c>
+      <c r="L33" s="14">
+        <f t="shared" si="5"/>
+        <v>33.1</v>
+      </c>
+      <c r="M33" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
         <f t="shared" si="0"/>
         <v>27.7</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>10</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <v>5</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <f>ROUND(D34/D37*100,1)</f>
         <v>3.3</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="8">
         <f t="shared" si="4"/>
         <v>91.899999999999991</v>
       </c>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
+      <c r="K34" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L34" s="14">
+        <f t="shared" si="5"/>
+        <v>35.6</v>
+      </c>
+      <c r="M34" s="14">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="8">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
         <f t="shared" si="0"/>
         <v>28.7</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>5</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <v>6</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <f>ROUND(D35/D37*100,1)</f>
         <v>3.3</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="8">
         <f t="shared" si="4"/>
         <v>95.199999999999989</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="K35" s="8">
+        <v>2</v>
+      </c>
+      <c r="L35" s="14">
+        <f t="shared" si="5"/>
+        <v>37.6</v>
+      </c>
+      <c r="M35" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>1.5</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <f t="shared" si="0"/>
         <v>30.2</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>5</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>6</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <f>ROUND(D36/D37*100,1)</f>
         <v>5</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
         <v>100</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
+      <c r="K36" s="8">
+        <v>2</v>
+      </c>
+      <c r="L36" s="14">
+        <f t="shared" si="5"/>
+        <v>39.6</v>
+      </c>
+      <c r="M36" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="8">
-        <f t="shared" ref="D37" si="5">SUM(D14:D36)</f>
+      <c r="D37" s="7">
+        <f t="shared" ref="D37" si="6">SUM(D14:D36)</f>
         <v>30.2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="J8:J13"/>
@@ -1916,25 +2003,6 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A25"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
